--- a/medicine/Mort/Cimetière_de_Blois-ville/Cimetière_de_Blois-ville.xlsx
+++ b/medicine/Mort/Cimetière_de_Blois-ville/Cimetière_de_Blois-ville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Blois-ville</t>
+          <t>Cimetière_de_Blois-ville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Blois-ville est, avec le cimetière de Blois-Vienne et le celui de la Forêt, l'une des trois nécropoles de la ville de Blois. Il est situé rue Alfred-Halou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Blois-ville</t>
+          <t>Cimetière_de_Blois-ville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est inauguré le 22 novembre 1857. Situé sur un terrain sablonneux et plat, c'est un grand cimetière rappelant la forme d'un rectangle vaguement allongé[1]. Il abrite les tombes de quelques personnalités célèbres, parmi lesquelles Jean-Eugène Robert-Houdin ou Auguste et Albert Poulain. On y trouve des cèdres de l'Atlas plus que centenaires.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est inauguré le 22 novembre 1857. Situé sur un terrain sablonneux et plat, c'est un grand cimetière rappelant la forme d'un rectangle vaguement allongé. Il abrite les tombes de quelques personnalités célèbres, parmi lesquelles Jean-Eugène Robert-Houdin ou Auguste et Albert Poulain. On y trouve des cèdres de l'Atlas plus que centenaires.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Blois-ville</t>
+          <t>Cimetière_de_Blois-ville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Charles-Pierre Barbier de Préville (1781-1859), maire de Blois (tombe moderne refaite récemment).
 Édouard Blau (1836-1906), librettiste et dramaturge.
